--- a/springboot3/public/template/获奖信息模板.xlsx
+++ b/springboot3/public/template/获奖信息模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roy1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CertificateProject\springboot3\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E416C6-BF85-4AE7-B881-530CD1B04F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9325E06-FCAF-4FC3-B6C5-8AF53AD30203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>序号</t>
   </si>
@@ -44,82 +44,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>尹吴潇、赵政和、戴志炜</t>
-  </si>
-  <si>
-    <t>刘春英</t>
-  </si>
-  <si>
     <t>金奖</t>
   </si>
   <si>
-    <t>樊睿、严子轩、周轩熠</t>
-  </si>
-  <si>
     <t>王灿</t>
   </si>
   <si>
-    <t>郑顺帆、倪伟聪、黄彬成</t>
-  </si>
-  <si>
-    <t>宋炯、韩建民</t>
-  </si>
-  <si>
-    <t>银奖</t>
-  </si>
-  <si>
-    <t>李嘉琪、朱文豪、王茹月</t>
-  </si>
-  <si>
-    <t>陈叶芳、王晓丽</t>
-  </si>
-  <si>
-    <t>钟昀铮、肖泽宇、刘哲</t>
-  </si>
-  <si>
-    <t>叶海荣、罗强</t>
-  </si>
-  <si>
-    <t>董政儒、郭胜航、周越</t>
-  </si>
-  <si>
-    <t>李钧</t>
-  </si>
-  <si>
-    <t>参赛奖</t>
-  </si>
-  <si>
-    <t>郑凯心、侯津涛、汤丰瑜</t>
-  </si>
-  <si>
-    <t>张平、刘春英</t>
-  </si>
-  <si>
-    <t>顽强拼搏奖</t>
-  </si>
-  <si>
-    <t>张志心、郭一铭、楼沁霈</t>
-  </si>
-  <si>
-    <t>最佳女队</t>
-  </si>
-  <si>
-    <t>经亨颐教育学院</t>
-  </si>
-  <si>
     <t>信息科学与技术学院</t>
-  </si>
-  <si>
-    <t>人文学院</t>
-  </si>
-  <si>
-    <t>数学学院</t>
-  </si>
-  <si>
-    <t>医学院</t>
-  </si>
-  <si>
-    <t>护理学院</t>
   </si>
   <si>
     <r>
@@ -142,6 +73,10 @@
       </rPr>
       <t>：以后要用</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊睿、梁捷希、周轩熠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -277,8 +212,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -574,13 +509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -604,135 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
         <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
